--- a/pred_ohlcv/54_21/2019-10-29 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 FAB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-800538.6514999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-822739.1779</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-831854.7671000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-837393.5798000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-837383.5798000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-875184.3565000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-875138.8165000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1020170.5397</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-463214.4794999996</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-463204.4794999996</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-499267.4164999996</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-600254.7217999996</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-615360.4618999996</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1752057.0703</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1818658.4013</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2024832.355699999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2150520.109699999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2221541.4946</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 FAB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-800538.6514999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-822739.1779</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-831854.7671000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-837393.5798000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-837383.5798000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-875184.3565000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-875138.8165000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1020170.5397</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-463214.4794999996</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-463204.4794999996</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-463204.4794999996</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-499267.4164999996</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1752057.0703</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1904131.355699999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2150520.109699999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2150620.5362</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2150610.5362</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2221541.4946</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2232139.2066</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2412139.2066</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2377139.2066</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2282703.2091</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2243983.255799999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2245775.478199999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
